--- a/wechat/doctor/食物含量.xlsx
+++ b/wechat/doctor/食物含量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangyingxie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hbat_win_vscode\wechat\doctor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FAA3BF-5EB1-D24E-850A-12860F5B8449}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331F6E2-8D43-4ADA-A738-5B15D175FE2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="460" windowWidth="20220" windowHeight="15840" xr2:uid="{9D89DA43-885B-F248-A554-B0E14AF3A852}"/>
+    <workbookView xWindow="4560" yWindow="1260" windowWidth="20010" windowHeight="13635" xr2:uid="{9D89DA43-885B-F248-A554-B0E14AF3A852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -33,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +184,10 @@
   </si>
   <si>
     <t>啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,57 +554,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DEF18-90F7-2447-8818-F49418528046}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>107</v>
@@ -631,9 +623,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>223</v>
@@ -663,9 +655,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>388</v>
@@ -692,9 +684,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>65</v>
@@ -703,7 +695,7 @@
         <v>3.2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>14.2</v>
@@ -721,9 +713,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>373</v>
@@ -732,7 +724,7 @@
         <v>0.2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>93</v>
@@ -744,15 +736,15 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -767,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -779,9 +771,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>34</v>
@@ -808,9 +800,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -843,9 +835,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>51</v>
@@ -878,9 +870,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>125</v>
@@ -913,9 +905,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>74</v>
@@ -948,9 +940,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>153.72999999999999</v>
@@ -977,9 +969,9 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>54</v>
@@ -1003,9 +995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>60</v>
@@ -1026,9 +1018,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>106</v>
@@ -1055,9 +1047,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>114</v>
@@ -1081,9 +1073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>88</v>
@@ -1116,9 +1108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -1136,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <v>0.02</v>
@@ -1148,9 +1140,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>21</v>
@@ -1183,9 +1175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>75</v>
@@ -1218,9 +1210,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>47</v>
@@ -1250,9 +1242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>280</v>
@@ -1282,9 +1274,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>116</v>
@@ -1317,9 +1309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>470</v>
@@ -1352,9 +1344,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>61</v>
@@ -1387,9 +1379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>46</v>
@@ -1419,9 +1411,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>447</v>
@@ -1454,9 +1446,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>46</v>
@@ -1486,9 +1478,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>32</v>
